--- a/planillaKanban.xlsx
+++ b/planillaKanban.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_ad3\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32311429-D8C1-4DD2-B4AD-66A8BEE9F5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E863BA9B-D68E-4AFD-A461-48C9AC000252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>Realizar el tablero Kanban</t>
   </si>
   <si>
-    <t>Crear una rama por usuario</t>
+    <t>Subir documento según la norma ieee 830</t>
   </si>
   <si>
-    <t>Subir documento según la norma ieee 830</t>
+    <t>Crear una rama por usuario</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -958,9 +958,7 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="17"/>
       <c r="E6" s="15" t="s">
         <v>10</v>
@@ -974,22 +972,24 @@
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="21">
       <c r="B8" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="21">
       <c r="B9" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
